--- a/Format Import Tusbung - wasior.xlsx
+++ b/Format Import Tusbung - wasior.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7\htdocs\billmanplnt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT APPS\billman advance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25B43AE-2FC4-4492-ACB8-91F2887E4D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D908324F-CAD0-45DF-B4AB-71F867C2BCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AFDB4832-0DB3-4261-BED5-0029AE39DDBF}"/>
   </bookViews>
@@ -18,6 +18,9 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$29</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="81">
   <si>
     <t>idpel</t>
   </si>
@@ -276,6 +279,12 @@
   </si>
   <si>
     <t>SPEL UNDURARA 2</t>
+  </si>
+  <si>
+    <t>TANGGAL</t>
+  </si>
+  <si>
+    <t>12/09/2023</t>
   </si>
 </sst>
 </file>
@@ -342,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -380,13 +389,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -409,16 +429,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{15CC70B9-751C-424F-9086-BBC6732F895D}"/>
     <cellStyle name="Normal 2 4" xfId="2" xr:uid="{4A7D5451-36AF-4D1D-999A-A041640C7749}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -429,14 +453,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -447,30 +464,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1271,31 +1264,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC61CD2-87A3-4ECB-82A5-1B02BF637F9B}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,36 +1335,39 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>424100851657</v>
+        <v>424100870048</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="7">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="4" t="str">
-        <f>MID(G2,5,2)</f>
+        <f t="shared" ref="I2:I29" si="0">MID(G2,5,2)</f>
         <v>RA</v>
       </c>
       <c r="J2" s="9" t="str">
-        <f>IF(I2="RA","RICKY",IF(I2="O","LISDES"))</f>
+        <f t="shared" ref="J2:J22" si="1">IF(I2="RA","RICKY",IF(I2="O","LISDES"))</f>
         <v>RICKY</v>
       </c>
       <c r="K2" s="8"/>
@@ -1379,41 +1376,43 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="7">
-        <v>12801284</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1891917</v>
+      </c>
+      <c r="O2" s="9" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(B2,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
+        <v>blm lunas</v>
+      </c>
+      <c r="P2" s="12"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>424100870048</v>
+        <v>424140006095</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" s="7">
-        <v>23000</v>
+        <v>16500</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I29" si="0">MID(G3,5,2)</f>
+        <f t="shared" si="0"/>
         <v>RA</v>
       </c>
       <c r="J3" s="9" t="str">
-        <f t="shared" ref="J3:J22" si="1">IF(I3="RA","RICKY",IF(I3="O","LISDES"))</f>
+        <f t="shared" si="1"/>
         <v>RICKY</v>
       </c>
       <c r="K3" s="8"/>
@@ -1422,19 +1421,20 @@
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="7">
-        <v>1891917</v>
+        <v>7551735</v>
       </c>
       <c r="O3" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B3,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>424140006095</v>
+        <v>424500031781</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
@@ -1446,7 +1446,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>22</v>
@@ -1466,31 +1466,32 @@
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="7">
-        <v>7551735</v>
+        <v>2927251</v>
       </c>
       <c r="O4" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B4,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="12"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>424500031781</v>
+        <v>424100604185</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>16500</v>
+        <v>13200</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>22</v>
@@ -1510,19 +1511,20 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="7">
-        <v>2927251</v>
+        <v>4700765</v>
       </c>
       <c r="O5" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B5,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>424100604185</v>
+        <v>424100726098</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>15</v>
@@ -1534,7 +1536,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>22</v>
@@ -1554,19 +1556,20 @@
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="7">
-        <v>4700765</v>
+        <v>6609358</v>
       </c>
       <c r="O6" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B6,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>424100726098</v>
+        <v>424140002350</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>15</v>
@@ -1578,7 +1581,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>22</v>
@@ -1598,19 +1601,20 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="7">
-        <v>6609358</v>
+        <v>5061507</v>
       </c>
       <c r="O7" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B7,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>424140002350</v>
+        <v>424500002466</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>15</v>
@@ -1622,7 +1626,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>22</v>
@@ -1642,31 +1646,32 @@
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="7">
-        <v>5061507</v>
+        <v>4009476</v>
       </c>
       <c r="O8" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B8,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>424500002466</v>
+        <v>424100840431</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>13200</v>
+        <v>10600</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>22</v>
@@ -1686,19 +1691,20 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="7">
-        <v>4009476</v>
+        <v>673808</v>
       </c>
       <c r="O9" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B9,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>424100840431</v>
+        <v>424100888913</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>15</v>
@@ -1710,7 +1716,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>22</v>
@@ -1730,19 +1736,20 @@
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="7">
-        <v>673808</v>
+        <v>4069865</v>
       </c>
       <c r="O10" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B10,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>424100888913</v>
+        <v>424100888939</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>15</v>
@@ -1754,7 +1761,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>22</v>
@@ -1774,19 +1781,20 @@
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="7">
-        <v>4069865</v>
+        <v>2822366</v>
       </c>
       <c r="O11" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B11,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>424100888939</v>
+        <v>424500015973</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>15</v>
@@ -1798,7 +1806,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>22</v>
@@ -1818,22 +1826,23 @@
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="7">
-        <v>2822366</v>
+        <v>3326133</v>
       </c>
       <c r="O12" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B12,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>424500015973</v>
+        <v>424500026129</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7">
         <v>10600</v>
@@ -1842,7 +1851,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>22</v>
@@ -1862,22 +1871,23 @@
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="7">
-        <v>3326133</v>
+        <v>2595875</v>
       </c>
       <c r="O13" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B13,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>424500026129</v>
+        <v>424500028866</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
         <v>10600</v>
@@ -1886,7 +1896,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>22</v>
@@ -1906,19 +1916,20 @@
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="7">
-        <v>2595875</v>
+        <v>2698411</v>
       </c>
       <c r="O14" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B14,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>424500028866</v>
+        <v>424500028874</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>15</v>
@@ -1930,7 +1941,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>22</v>
@@ -1950,19 +1961,20 @@
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="7">
-        <v>2698411</v>
+        <v>2337669</v>
       </c>
       <c r="O15" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B15,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>424500028874</v>
+        <v>424500028882</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
@@ -1974,7 +1986,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>22</v>
@@ -1994,19 +2006,20 @@
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="7">
-        <v>2337669</v>
+        <v>2666628</v>
       </c>
       <c r="O16" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B16,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>424500028882</v>
+        <v>424500029707</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>15</v>
@@ -2018,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>22</v>
@@ -2038,31 +2051,32 @@
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="7">
-        <v>2666628</v>
+        <v>2820777</v>
       </c>
       <c r="O17" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B17,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>424500029707</v>
+        <v>424100882075</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>10600</v>
+        <v>7700</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>22</v>
@@ -2082,31 +2096,32 @@
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="7">
-        <v>2820777</v>
+        <v>2140612</v>
       </c>
       <c r="O18" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B18,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>424100882075</v>
+        <v>424100888905</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D19" s="7">
-        <v>7700</v>
+        <v>5500</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>22</v>
@@ -2126,31 +2141,32 @@
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="7">
-        <v>2140612</v>
+        <v>2198570</v>
       </c>
       <c r="O19" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B19,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>424500023898</v>
+        <v>424100888921</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D20" s="7">
-        <v>7700</v>
+        <v>5500</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>22</v>
@@ -2170,31 +2186,32 @@
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="7">
-        <v>4828365</v>
+        <v>2092090</v>
       </c>
       <c r="O20" s="9" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B20,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
         <v>blm lunas</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>424100888905</v>
+        <v>424500023898</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D21" s="7">
-        <v>5500</v>
+        <v>7700</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>22</v>
@@ -2214,31 +2231,33 @@
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="7">
-        <v>2198570</v>
-      </c>
-      <c r="O21" s="9" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B21,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
-        <v>blm lunas</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4828365</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>424100888921</v>
+        <v>424100851657</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D22" s="7">
-        <v>5500</v>
+        <v>33000</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>22</v>
@@ -2258,14 +2277,16 @@
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="7">
-        <v>2092090</v>
-      </c>
-      <c r="O22" s="9" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(B22,[1]Sheet!$C$2:$L$20,10,0),"blm lunas")</f>
-        <v>blm lunas</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>12801284</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>424500029602</v>
       </c>
@@ -2306,8 +2327,11 @@
       <c r="O23" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>424500029610</v>
       </c>
@@ -2348,8 +2372,11 @@
       <c r="O24" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>424500029628</v>
       </c>
@@ -2390,8 +2417,11 @@
       <c r="O25" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>424500029636</v>
       </c>
@@ -2432,8 +2462,11 @@
       <c r="O26" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>424500029644</v>
       </c>
@@ -2474,8 +2507,11 @@
       <c r="O27" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>424500029651</v>
       </c>
@@ -2516,8 +2552,11 @@
       <c r="O28" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>424500029669</v>
       </c>
@@ -2558,15 +2597,23 @@
       <c r="O29" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="P29" s="11" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O29" xr:uid="{3AC61CD2-87A3-4ECB-82A5-1B02BF637F9B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O29">
+      <sortCondition ref="O1:O29"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:A29">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H2:H29 K2:K29 M2:M29">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$O2="lunas"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A29">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O29">
     <cfRule type="expression" dxfId="0" priority="1">
